--- a/Douglas/Architecture/Product Architecture REV 02.xlsx
+++ b/Douglas/Architecture/Product Architecture REV 02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="345" windowWidth="24480" windowHeight="13860" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="300" yWindow="345" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Major Signals List" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="93">
   <si>
     <t>Project</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>Douglas Bahr</t>
-  </si>
-  <si>
-    <t>V_01</t>
   </si>
   <si>
     <t>Attiny85</t>
@@ -1149,7 +1146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -1195,7 +1192,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="11"/>
     </row>
@@ -1227,114 +1224,114 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
@@ -1389,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1428,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
@@ -1442,113 +1439,113 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="B8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="B9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="B10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="B12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="B14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="B15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1">
       <c r="B17" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
       <c r="B18" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="B19" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="12"/>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1">
       <c r="B21" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1">
       <c r="B22" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1">
       <c r="B23" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1">
       <c r="B24" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1">
       <c r="B25" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1">
       <c r="B26" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
       <c r="B27" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="B28" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1">
@@ -1615,7 +1612,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1644,7 +1641,7 @@
     </row>
     <row r="7" spans="1:6" ht="12.75">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
@@ -1657,12 +1654,12 @@
         <v>0.15</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="7">
         <v>1</v>
@@ -1675,7 +1672,7 @@
         <v>0.02</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
@@ -1683,7 +1680,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
@@ -6656,8 +6653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -6696,49 +6693,49 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="E9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="F9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="G9" s="18" t="s">
         <v>35</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -6749,7 +6746,7 @@
         <v>270</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
@@ -6758,7 +6755,7 @@
         <v>2.9488086812927999E-8</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
@@ -6767,7 +6764,7 @@
         <v>20000</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H14" s="15"/>
     </row>
@@ -6779,15 +6776,15 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="C20" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
         <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1">
@@ -6796,19 +6793,19 @@
         <v>381.74651300949802</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="C24" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
@@ -6820,7 +6817,7 @@
         <v>8.6913207340583942E-16</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
@@ -6839,10 +6836,10 @@
         <v>0.82022853776451476</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E28" s="16"/>
     </row>
@@ -6864,58 +6861,58 @@
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="21">
         <v>8.9751200000000004</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1">
       <c r="A33" s="21"/>
       <c r="B33" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" s="21">
         <v>8.9751200000000004</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1">
       <c r="A34" s="21"/>
       <c r="B34" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="21">
         <v>25.243220000000001</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1">
       <c r="A35" s="21"/>
       <c r="B35" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" s="21">
         <v>20.422180000000001</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
